--- a/media/template/arrive_template.xlsx
+++ b/media/template/arrive_template.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">yotei_out!$1:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">yotei_out!$1:$4</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">yotei_out!$1:$4</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">yotei_out!$1:$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -59,6 +60,7 @@
       <color rgb="FF000000"/>
       <name val="IPA Pゴシック"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -199,15 +201,15 @@
   <dimension ref="A2:E69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.74"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,455 +240,455 @@
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:E12 E13:E69">
